--- a/medicine/Enfance/Annie_Jay/Annie_Jay.xlsx
+++ b/medicine/Enfance/Annie_Jay/Annie_Jay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Annie Jay, née le 19 juillet 1957, est une autrice française de romans historiques. Dans ses ouvrages, elle met en scène personnages réels et fictifs, et privilégie les intrigues à rebondissements mêlant affaires policières, aventures et amour.
-Autodidacte passionnée de lecture et d'histoire, sa vocation est née d’un pari de rédiger une histoire[1].
+Autodidacte passionnée de lecture et d'histoire, sa vocation est née d’un pari de rédiger une histoire.
 Annie Jay est passionnée d'histoire.
 </t>
         </is>
@@ -513,10 +525,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Annie Jay a grandi en banlieue parisienne[2] et lit énormément depuis l'âge de 10 ans[2]. C'est seulement à l'adolescence qu'elle commence à apprécier l'histoire[2], surtout grâce aux grands romanciers du XIXe siècle[2] comme Théophile Gautier, Alexandre Dumas ou encore Paul Féval.
-Après avoir travaillé au ministère de l'Agriculture, elle vit maintenant de sa plume[2] à côté de Toulouse[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Annie Jay a grandi en banlieue parisienne et lit énormément depuis l'âge de 10 ans. C'est seulement à l'adolescence qu'elle commence à apprécier l'histoire, surtout grâce aux grands romanciers du XIXe siècle comme Théophile Gautier, Alexandre Dumas ou encore Paul Féval.
+Après avoir travaillé au ministère de l'Agriculture, elle vit maintenant de sa plume à côté de Toulouse.
 En 1993, elle écrit son premier roman, Complots à Versailles, qui rencontre immédiatement le succès. Trois de ses romans sont recommandés par l'Éducation Nationale. Annie Jay est l'auteure d'une vingtaine de romans, tous historiques, pour lesquels elle a reçu de nombreux prix.
 </t>
         </is>
@@ -548,37 +562,217 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Complots à Versailles
-Complot à Versailles, Hachette Jeunesse, 1993
+          <t>Série Complots à Versailles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Complot à Versailles, Hachette Jeunesse, 1993
 La Dame aux élixirs, Hachette Jeunesse, 2010
 L'Aiguille empoisonnée, Hachette Jeunesse, 2011
 Le Trésor des Rovigny, Hachette Jeunesse, 2017
 À la poursuite d'Olympe[N 1], Hachette Jeunesse, 1995
 Les romans dépeignent les aventures de deux amies, en 1682, Cécile et Pauline, qui vont devoir déjouer mille intrigues et complots à la Cour du Roi Soleil.
 Les quatre tomes de la série principale ont fait l'objet d'une adaptation en bande dessinée par Carbone (scénario), Giula Adragna (dessin) et Francesca Piscitelli (couleurs). De nouveaux tomes, reprenant les personnages et l'univers créé par Annie Jay, mais avec un scénario inédit, sont publiés dès 2022.
-Série Pompéi
-L'Esclave de Pompéi, Hachette Jeunesse, 2004
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Annie_Jay</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Annie_Jay</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Pompéi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Esclave de Pompéi, Hachette Jeunesse, 2004
 La Fiancée de Pompéi, Le Livre de Poche Jeunesse, 2013
 Les deux livres ne sont pas la suite l'un de l'autre mais se passent au même moment, c'est-à-dire au moment de l'éruption du Vésuve.
-Série Les Roses de Trianon
-Roselys, justicière de l'ombre, Bayard Jeunesse, 2014
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Annie_Jay</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Annie_Jay</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Les Roses de Trianon</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roselys, justicière de l'ombre, Bayard Jeunesse, 2014
 Roselys au service de la reine, Bayard Jeunesse, 2014
 Roselys et le Maître des esprits, Bayard Jeunesse, 2015
 Coup de théâtre à Trianon, Bayard Jeunesse, 2015
 Le Médaillon d'argent, Bayard Jeunesse, 2016
 Les Noces, Bayard Jeunesse, 2017
 Les six romans forment un tout. L'action se déroule en 1780. Il y a un lointain lien de parenté entre Roselys, l'héroïne de la série, et Olympe (l'héroïne, cent ans plus tôt d'À la poursuite d'Olympe).
-Série Au nom du roi...
-Au nom du roi..., Hachette Jeunesse, 2006
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Annie_Jay</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Annie_Jay</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Au nom du roi...</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au nom du roi..., Hachette Jeunesse, 2006
 La Vengeance de Marie, Hachette Jeunesse, 2008
 Romans policiers qui se suivent. L'action se déroule en 1671 à Paris.
-Série Adélaïde, princesse espiègle
-Une petite fiancée à Versailles, Éveil et Découvertes, 2010, réédition Livre de poche jeunesse 2018
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Annie_Jay</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Annie_Jay</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Adélaïde, princesse espiègle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une petite fiancée à Versailles, Éveil et Découvertes, 2010, réédition Livre de poche jeunesse 2018
 Mariage à Versailles, Livre de poche jeunesse, 2018
 Premiers pas à la cour, Livre de poche jeunesse, 2018
 L'action se situe en 1690 à Versailles.
-Série Élisabeth, princesse à Versailles
-Le Secret de l'automate, Albin Michel jeunesse, 2015
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Annie_Jay</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Annie_Jay</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Élisabeth, princesse à Versailles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Secret de l'automate, Albin Michel jeunesse, 2015
 Le Cadeau de la reine, Albin Michel jeunesse, 2015
 La Dame à la rose, Albin Michel jeunesse, 2016
 Bal à la Cour, Albin Michel jeunesse, 2016
@@ -608,8 +802,43 @@
 Le Trésor de Colin, Albin Michel jeunesse, 2024
 Le Rêve de Lottie, Albin Michel jeunesse, 2024
 L'héroïne de cette série est la jeune Élisabeth, la plus jeune sœur du roi Louis XVI.
-Série Jean, petit marmiton
-Une surprise pour le duc !, Albin Michel jeunesse, 2017
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Annie_Jay</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Annie_Jay</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Série Jean, petit marmiton</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une surprise pour le duc !, Albin Michel jeunesse, 2017
 Le Concours de la reine, Albin Michel jeunesse, 2017
 Du chocolat pour Zoé, Albin Michel jeunesse, 2017
 Vive les crêpes !, Albin Michel jeunesse, 2018
@@ -618,8 +847,43 @@
 La galette des rois, Albin Michel jeunesse, 2019
 Un dessert de Grand-mère, Albin Michel jeunesse, 2019
 Le héros de la série est le tout jeune Jean, apprenti marmiton en 1755. Il apparaîtra adulte dans la série Élisabeth, princesse à Versailles.
-Série Arno, le valet de Nostradamus
-La prophétie, Albin Michel jeunesse, 2020
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Annie_Jay</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Annie_Jay</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Série Arno, le valet de Nostradamus</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prophétie, Albin Michel jeunesse, 2020
 La cour des miracles, Albin Michel jeunesse, 2020
 La Fiole d'or, Albin Michel jeunesse, 2020
 Le Prisonnier du Châtelet, Albin Michel jeunesse, 2020
@@ -629,8 +893,43 @@
 Au service du Dauphin, Albin Michel jeunesse, 2022
 La dernière Prophétie, Albin Michel jeunesse, 2022
 Le héros est le jeune Arno, qui va devenir, en 1755, le valet du fameux Nostradamus qui va l'aider à retrouver ses racines.
-Autres romans
-Le Trône de Cléopâtre, Hachette Jeunesse, 1996Le roman utilise le principe de la machine à remonter dans le temps pour faire voyager une adolescente à l'époque de Cléopâtre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Annie_Jay</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Annie_Jay</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le Trône de Cléopâtre, Hachette Jeunesse, 1996Le roman utilise le principe de la machine à remonter dans le temps pour faire voyager une adolescente à l'époque de Cléopâtre.
 Fantôme en héritage, Hachette Jeunesse, 1997Unique roman d'Annie Jay qui n'a pas de caractère historique.
 À la cour du Roi Soleil, Milan, 2002Court roman pour enfants permettant de découvrir les fastes de Versailles.
 L'Inconnu de la Bastille, Le Livre de Poche Jeunesse, 2008Coécrit avec Micheline Jeanjean. Le roman se déroule pendant la Révolution française.
